--- a/ValueSet-hiv-d-de898.xlsx
+++ b/ValueSet-hiv-d-de898.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T12:29:43+00:00</t>
+    <t>2024-05-31T12:58:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hiv-d-de898.xlsx
+++ b/ValueSet-hiv-d-de898.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T12:58:36+00:00</t>
+    <t>2024-06-03T09:57:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hiv-d-de898.xlsx
+++ b/ValueSet-hiv-d-de898.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T09:57:44+00:00</t>
+    <t>2024-06-03T09:58:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hiv-d-de898.xlsx
+++ b/ValueSet-hiv-d-de898.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T09:58:43+00:00</t>
+    <t>2024-06-06T18:26:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hiv-d-de898.xlsx
+++ b/ValueSet-hiv-d-de898.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T18:26:28+00:00</t>
+    <t>2024-06-06T18:27:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hiv-d-de898.xlsx
+++ b/ValueSet-hiv-d-de898.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T18:27:39+00:00</t>
+    <t>2024-06-06T18:29:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hiv-d-de898.xlsx
+++ b/ValueSet-hiv-d-de898.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T18:29:39+00:00</t>
+    <t>2024-06-14T16:57:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hiv-d-de898.xlsx
+++ b/ValueSet-hiv-d-de898.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T16:57:16+00:00</t>
+    <t>2024-06-25T02:35:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
